--- a/Excel-XLSX/UN-DOM.xlsx
+++ b/Excel-XLSX/UN-DOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>tJl49g</t>
+    <t>P4Nhs2</t>
   </si>
   <si>
     <t>2014</t>
@@ -168,6 +168,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -189,9 +192,6 @@
     <t>1995</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>2013</t>
   </si>
   <si>
@@ -231,6 +231,9 @@
     <t>22</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
@@ -246,9 +249,6 @@
     <t>69</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>1994</t>
   </si>
   <si>
@@ -330,486 +330,489 @@
     <t>42</t>
   </si>
   <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>3300</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>5130</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>4980</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>2070</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>4686</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>3320</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1558</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>1520</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>1243</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>1217</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>947</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>1771</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>757</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>723</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>1759</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>HON</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
     <t>114</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>3300</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>3800</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>5130</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>4980</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>2070</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>4686</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>3320</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1935</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1558</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>1520</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>1243</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>1217</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>947</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>595</t>
-  </si>
-  <si>
-    <t>1750</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>1771</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>757</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>716</t>
-  </si>
-  <si>
-    <t>801</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>723</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>438</t>
-  </si>
-  <si>
-    <t>644</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>HON</t>
-  </si>
-  <si>
-    <t>HND</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>NIC</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>160</t>
   </si>
   <si>
@@ -828,6 +831,9 @@
     <t>118</t>
   </si>
   <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>177</t>
   </si>
   <si>
@@ -840,7 +846,7 @@
     <t>SDN</t>
   </si>
   <si>
-    <t>119</t>
+    <t>120</t>
   </si>
   <si>
     <t>185</t>
@@ -852,9 +858,6 @@
     <t>SYR</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>121</t>
   </si>
   <si>
@@ -870,6 +873,9 @@
     <t>125</t>
   </si>
   <si>
+    <t>126</t>
+  </si>
+  <si>
     <t>196</t>
   </si>
   <si>
@@ -879,12 +885,12 @@
     <t>TUR</t>
   </si>
   <si>
-    <t>126</t>
-  </si>
-  <si>
     <t>127</t>
   </si>
   <si>
+    <t>128</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
@@ -894,9 +900,6 @@
     <t>UKR</t>
   </si>
   <si>
-    <t>128</t>
-  </si>
-  <si>
     <t>129</t>
   </si>
   <si>
@@ -909,6 +912,9 @@
     <t>132</t>
   </si>
   <si>
+    <t>133</t>
+  </si>
+  <si>
     <t>202</t>
   </si>
   <si>
@@ -918,7 +924,7 @@
     <t>USA</t>
   </si>
   <si>
-    <t>133</t>
+    <t>134</t>
   </si>
   <si>
     <t>207</t>
@@ -930,16 +936,16 @@
     <t>VEN</t>
   </si>
   <si>
-    <t>134</t>
-  </si>
-  <si>
     <t>135</t>
   </si>
   <si>
+    <t>136</t>
+  </si>
+  <si>
     <t>26428</t>
   </si>
   <si>
-    <t>136</t>
+    <t>137</t>
   </si>
   <si>
     <t>246</t>
@@ -948,7 +954,7 @@
     <t>33816</t>
   </si>
   <si>
-    <t>137</t>
+    <t>138</t>
   </si>
   <si>
     <t>275</t>
@@ -957,7 +963,7 @@
     <t>114050</t>
   </si>
   <si>
-    <t>138</t>
+    <t>139</t>
   </si>
   <si>
     <t>278</t>
@@ -966,9 +972,6 @@
     <t>116000</t>
   </si>
   <si>
-    <t>139</t>
-  </si>
-  <si>
     <t>191</t>
   </si>
   <si>
@@ -978,13 +981,16 @@
     <t>113722</t>
   </si>
   <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>1686</t>
-  </si>
-  <si>
-    <t>114805</t>
+    <t>184</t>
+  </si>
+  <si>
+    <t>2116</t>
+  </si>
+  <si>
+    <t>121841</t>
+  </si>
+  <si>
+    <t>142</t>
   </si>
   <si>
     <t>216</t>
@@ -1002,16 +1008,16 @@
     <t>210000</t>
   </si>
   <si>
-    <t>142</t>
-  </si>
-  <si>
     <t>143</t>
   </si>
   <si>
+    <t>144</t>
+  </si>
+  <si>
     <t>133770</t>
   </si>
   <si>
-    <t>144</t>
+    <t>145</t>
   </si>
   <si>
     <t>1970</t>
@@ -1029,13 +1035,13 @@
     <t>UNK</t>
   </si>
   <si>
-    <t>145</t>
+    <t>146</t>
   </si>
   <si>
     <t>1971</t>
   </si>
   <si>
-    <t>146</t>
+    <t>147</t>
   </si>
   <si>
     <t>1972</t>
@@ -1044,16 +1050,13 @@
     <t>1100</t>
   </si>
   <si>
-    <t>147</t>
+    <t>148</t>
   </si>
   <si>
     <t>1977</t>
   </si>
   <si>
     <t>500</t>
-  </si>
-  <si>
-    <t>148</t>
   </si>
   <si>
     <t>149</t>
@@ -1450,7 +1453,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V154"/>
+  <dimension ref="A1:V155"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1590,8 +1593,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1658,8 +1661,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1726,8 +1729,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1794,8 +1797,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1862,8 +1865,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1930,8 +1933,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -1998,8 +2001,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -2066,8 +2069,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -2179,10 +2182,10 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>31</v>
@@ -2217,22 +2220,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -2270,8 +2273,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -2285,22 +2288,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -2338,8 +2341,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -2353,7 +2356,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>58</v>
@@ -2406,8 +2409,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -2474,8 +2477,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -2542,8 +2545,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -2610,8 +2613,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -2678,8 +2681,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -2746,8 +2749,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -2814,8 +2817,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -2882,8 +2885,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -2930,7 +2933,7 @@
         <v>31</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>31</v>
@@ -2998,7 +3001,7 @@
         <v>31</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>31</v>
@@ -3033,22 +3036,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -3063,7 +3066,7 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>31</v>
@@ -3086,8 +3089,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -3101,22 +3104,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -3154,8 +3157,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -3172,19 +3175,19 @@
         <v>79</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -3222,8 +3225,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -3243,16 +3246,16 @@
         <v>81</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -3290,8 +3293,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -3311,16 +3314,16 @@
         <v>83</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -3358,8 +3361,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -3379,16 +3382,16 @@
         <v>86</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -3426,8 +3429,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -3447,16 +3450,16 @@
         <v>88</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -3494,8 +3497,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -3515,16 +3518,16 @@
         <v>89</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3562,8 +3565,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -3583,16 +3586,16 @@
         <v>91</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3630,8 +3633,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -3651,16 +3654,16 @@
         <v>58</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3698,8 +3701,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -3719,16 +3722,16 @@
         <v>24</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3766,8 +3769,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -3787,16 +3790,16 @@
         <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3834,8 +3837,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -3855,16 +3858,16 @@
         <v>36</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3902,8 +3905,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -3923,16 +3926,16 @@
         <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3970,8 +3973,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -3991,16 +3994,16 @@
         <v>40</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -4038,8 +4041,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -4053,22 +4056,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -4106,8 +4109,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -4127,16 +4130,16 @@
         <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -4174,8 +4177,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -4195,16 +4198,16 @@
         <v>46</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -4242,8 +4245,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -4263,16 +4266,16 @@
         <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4331,16 +4334,16 @@
         <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4355,7 +4358,7 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>104</v>
@@ -4446,8 +4449,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -4514,8 +4517,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -4582,8 +4585,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -4597,7 +4600,7 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>47</v>
@@ -4698,7 +4701,7 @@
         <v>31</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>31</v>
@@ -4786,8 +4789,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -4854,8 +4857,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -4922,8 +4925,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52">
@@ -4990,8 +4993,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53">
@@ -5058,8 +5061,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54">
@@ -5126,8 +5129,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55">
@@ -5194,8 +5197,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -5262,8 +5265,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -5330,8 +5333,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -5398,8 +5401,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -5466,8 +5469,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
@@ -5534,8 +5537,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61">
@@ -5602,8 +5605,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -5670,8 +5673,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63">
@@ -5738,8 +5741,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64">
@@ -5806,8 +5809,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -5824,7 +5827,7 @@
         <v>163</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>113</v>
@@ -5874,8 +5877,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66">
@@ -5942,8 +5945,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67">
@@ -5960,7 +5963,7 @@
         <v>168</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>113</v>
@@ -6010,8 +6013,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68">
@@ -6078,8 +6081,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -6146,8 +6149,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -6161,7 +6164,7 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>86</v>
@@ -6214,8 +6217,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71">
@@ -6282,8 +6285,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72">
@@ -6330,7 +6333,7 @@
         <v>180</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>31</v>
@@ -6350,8 +6353,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -6418,8 +6421,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74">
@@ -6486,8 +6489,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75">
@@ -6554,8 +6557,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76">
@@ -6622,8 +6625,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77">
@@ -6690,8 +6693,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -6758,8 +6761,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79">
@@ -6826,8 +6829,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80">
@@ -6894,8 +6897,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81">
@@ -6962,8 +6965,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82">
@@ -7030,8 +7033,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83">
@@ -7098,8 +7101,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84">
@@ -7166,8 +7169,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="85">
@@ -7370,8 +7373,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88">
@@ -7438,8 +7441,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89">
@@ -7506,8 +7509,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90">
@@ -7574,8 +7577,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91">
@@ -7642,8 +7645,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92">
@@ -7758,7 +7761,7 @@
         <v>31</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>31</v>
@@ -7796,7 +7799,7 @@
         <v>230</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>228</v>
@@ -7846,8 +7849,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95">
@@ -7914,8 +7917,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -7982,8 +7985,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -8000,19 +8003,19 @@
         <v>235</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -8027,10 +8030,10 @@
         <v>30</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>31</v>
@@ -8050,8 +8053,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98">
@@ -8065,22 +8068,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>229</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -8098,7 +8101,7 @@
         <v>31</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>31</v>
@@ -8118,8 +8121,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -8136,19 +8139,19 @@
         <v>239</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>229</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -8163,10 +8166,10 @@
         <v>30</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>31</v>
@@ -8186,8 +8189,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="100">
@@ -8204,19 +8207,19 @@
         <v>240</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>229</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -8254,8 +8257,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="101">
@@ -8272,19 +8275,19 @@
         <v>241</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>229</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8322,8 +8325,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="102">
@@ -8340,19 +8343,19 @@
         <v>242</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>229</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8390,8 +8393,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103">
@@ -8408,19 +8411,19 @@
         <v>243</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8435,10 +8438,10 @@
         <v>30</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P103" s="2" t="s">
         <v>31</v>
@@ -8458,8 +8461,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="104">
@@ -8473,22 +8476,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="I104" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8526,8 +8529,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="105">
@@ -8544,19 +8547,19 @@
         <v>248</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8594,8 +8597,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106">
@@ -8612,19 +8615,19 @@
         <v>249</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8680,19 +8683,19 @@
         <v>250</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8748,19 +8751,19 @@
         <v>251</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8798,8 +8801,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="109">
@@ -8813,22 +8816,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="I109" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8866,8 +8869,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="110">
@@ -8884,19 +8887,19 @@
         <v>256</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8934,8 +8937,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="111">
@@ -8952,19 +8955,19 @@
         <v>257</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8982,7 +8985,7 @@
         <v>31</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>31</v>
@@ -9020,19 +9023,19 @@
         <v>258</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -9085,22 +9088,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -9115,10 +9118,10 @@
         <v>30</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P113" s="2" t="s">
         <v>31</v>
@@ -9153,22 +9156,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -9186,7 +9189,7 @@
         <v>32</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>31</v>
@@ -9206,8 +9209,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="115">
@@ -9221,22 +9224,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>264</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -9274,8 +9277,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="116">
@@ -9292,19 +9295,19 @@
         <v>102</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9342,8 +9345,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="117">
@@ -9357,22 +9360,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="I117" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>28</v>
@@ -9387,10 +9390,10 @@
         <v>30</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>31</v>
@@ -9425,22 +9428,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9458,7 +9461,7 @@
         <v>31</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>31</v>
@@ -9493,22 +9496,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -9526,7 +9529,7 @@
         <v>32</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>31</v>
@@ -9546,8 +9549,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="120">
@@ -9561,23 +9564,23 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H120" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F120" s="2" t="s">
+      <c r="I120" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="J120" s="2" t="s">
         <v>28</v>
       </c>
@@ -9591,7 +9594,7 @@
         <v>30</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>31</v>
@@ -9614,8 +9617,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="121">
@@ -9629,22 +9632,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="H121" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -9659,13 +9662,13 @@
         <v>30</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q121" s="2" t="s">
         <v>31</v>
@@ -9682,8 +9685,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="122">
@@ -9697,22 +9700,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H122" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="I122" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -9727,14 +9730,14 @@
         <v>30</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O122" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P122" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P122" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="Q122" s="2" t="s">
         <v>31</v>
       </c>
@@ -9750,8 +9753,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="123">
@@ -9765,22 +9768,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -9798,7 +9801,7 @@
         <v>31</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>31</v>
@@ -9818,8 +9821,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="124">
@@ -9833,22 +9836,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -9863,10 +9866,10 @@
         <v>30</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>31</v>
@@ -9901,22 +9904,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -9969,22 +9972,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -10022,8 +10025,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="127">
@@ -10037,22 +10040,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="H127" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -10090,8 +10093,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="128">
@@ -10105,22 +10108,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="I128" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>28</v>
@@ -10158,8 +10161,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="129">
@@ -10173,22 +10176,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="H129" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>28</v>
@@ -10203,11 +10206,11 @@
         <v>30</v>
       </c>
       <c r="N129" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O129" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O129" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="P129" s="2" t="s">
         <v>31</v>
       </c>
@@ -10226,8 +10229,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>33</v>
+      <c r="V129" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="130">
@@ -10241,22 +10244,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="I130" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>28</v>
@@ -10294,8 +10297,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="131">
@@ -10309,22 +10312,22 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>28</v>
@@ -10339,10 +10342,10 @@
         <v>30</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>31</v>
@@ -10377,22 +10380,22 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>28</v>
@@ -10410,7 +10413,7 @@
         <v>31</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>31</v>
@@ -10445,22 +10448,22 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -10475,10 +10478,10 @@
         <v>30</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>31</v>
@@ -10498,8 +10501,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>33</v>
+      <c r="V133" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="134">
@@ -10513,22 +10516,22 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F134" s="2" t="s">
+      <c r="H134" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="I134" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>28</v>
@@ -10546,7 +10549,7 @@
         <v>31</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="P134" s="2" t="s">
         <v>31</v>
@@ -10566,8 +10569,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>33</v>
+      <c r="V134" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="135">
@@ -10581,22 +10584,22 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="H135" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -10614,7 +10617,7 @@
         <v>31</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="P135" s="2" t="s">
         <v>31</v>
@@ -10634,8 +10637,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="136">
@@ -10649,22 +10652,22 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H136" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="I136" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
@@ -10682,7 +10685,7 @@
         <v>31</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>31</v>
@@ -10699,11 +10702,11 @@
       <c r="T136" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U136" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="V136" s="1" t="s">
-        <v>33</v>
+      <c r="U136" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V136" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="137">
@@ -10720,19 +10723,19 @@
         <v>307</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
@@ -10750,28 +10753,28 @@
         <v>31</v>
       </c>
       <c r="O137" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P137" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q137" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R137" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S137" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T137" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U137" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="P137" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q137" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R137" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S137" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T137" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U137" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="V137" s="1" t="s">
-        <v>33</v>
+      <c r="V137" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="138">
@@ -10785,61 +10788,61 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O138" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N138" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O138" s="2" t="s">
+      <c r="P138" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R138" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U138" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="P138" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q138" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R138" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S138" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T138" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U138" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="139">
@@ -10853,61 +10856,61 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O139" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K139" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L139" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O139" s="2" t="s">
+      <c r="P139" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q139" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R139" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S139" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T139" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U139" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="P139" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q139" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R139" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S139" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T139" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U139" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="140">
@@ -10921,58 +10924,58 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O140" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L140" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N140" s="2" t="s">
+      <c r="P140" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q140" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R140" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S140" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U140" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="O140" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="P140" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q140" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R140" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S140" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T140" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U140" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="V140" s="2" t="s">
         <v>31</v>
@@ -10989,22 +10992,22 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>28</v>
@@ -11019,28 +11022,28 @@
         <v>30</v>
       </c>
       <c r="N141" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="P141" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q141" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R141" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S141" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T141" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U141" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="O141" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="P141" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q141" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R141" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S141" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T141" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U141" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="V141" s="2" t="s">
         <v>31</v>
@@ -11057,61 +11060,61 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F142" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="O142" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="P142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U142" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K142" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L142" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O142" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P142" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q142" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R142" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S142" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="T142" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U142" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V142" s="1" t="s">
-        <v>33</v>
+      <c r="V142" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="143">
@@ -11125,23 +11128,23 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I143" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="J143" s="2" t="s">
         <v>28</v>
       </c>
@@ -11170,7 +11173,7 @@
         <v>31</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="T143" s="2" t="s">
         <v>31</v>
@@ -11178,8 +11181,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>33</v>
+      <c r="V143" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="144">
@@ -11193,61 +11196,61 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S144" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J144" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K144" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L144" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M144" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O144" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P144" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q144" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R144" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S144" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="T144" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>33</v>
+      <c r="V144" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="145">
@@ -11264,58 +11267,58 @@
         <v>331</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S145" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K145" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L145" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M145" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O145" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P145" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q145" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R145" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S145" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="T145" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="146">
@@ -11329,22 +11332,22 @@
         <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H146" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="I146" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>28</v>
@@ -11382,8 +11385,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -11403,16 +11406,16 @@
         <v>340</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>28</v>
@@ -11427,7 +11430,7 @@
         <v>30</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>341</v>
+        <v>117</v>
       </c>
       <c r="O147" s="2" t="s">
         <v>31</v>
@@ -11450,8 +11453,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="148">
@@ -11465,38 +11468,38 @@
         <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N148" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K148" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L148" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M148" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N148" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="O148" s="2" t="s">
         <v>31</v>
       </c>
@@ -11518,8 +11521,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="149">
@@ -11533,22 +11536,22 @@
         <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>28</v>
@@ -11563,7 +11566,7 @@
         <v>30</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>84</v>
+        <v>346</v>
       </c>
       <c r="O149" s="2" t="s">
         <v>31</v>
@@ -11586,8 +11589,8 @@
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="150">
@@ -11601,22 +11604,22 @@
         <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>28</v>
@@ -11631,7 +11634,7 @@
         <v>30</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="O150" s="2" t="s">
         <v>31</v>
@@ -11654,8 +11657,8 @@
       <c r="U150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>33</v>
+      <c r="V150" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="151">
@@ -11672,19 +11675,19 @@
         <v>154</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>28</v>
@@ -11699,7 +11702,7 @@
         <v>30</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="O151" s="2" t="s">
         <v>31</v>
@@ -11722,8 +11725,8 @@
       <c r="U151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>33</v>
+      <c r="V151" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="152">
@@ -11737,22 +11740,22 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>28</v>
@@ -11767,7 +11770,7 @@
         <v>30</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="O152" s="2" t="s">
         <v>31</v>
@@ -11790,8 +11793,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="153">
@@ -11805,22 +11808,22 @@
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>28</v>
@@ -11835,10 +11838,10 @@
         <v>30</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="P153" s="2" t="s">
         <v>31</v>
@@ -11873,22 +11876,22 @@
         <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>28</v>
@@ -11927,6 +11930,74 @@
         <v>33</v>
       </c>
       <c r="V154" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U155" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V155" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-DOM.xlsx
+++ b/Excel-XLSX/UN-DOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>P4Nhs2</t>
+    <t>Ku0fI4</t>
   </si>
   <si>
     <t>1970</t>
@@ -1083,46 +1083,37 @@
     <t>157</t>
   </si>
   <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
     <t>167</t>
   </si>
   <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>2330</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
     <t>168</t>
   </si>
   <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>2124</t>
-  </si>
-  <si>
-    <t>121809</t>
+    <t>206</t>
+  </si>
+  <si>
+    <t>125343</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1498,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V170"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -12096,10 +12087,10 @@
         <v>31</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="P156" s="2" t="s">
         <v>33</v>
@@ -12167,7 +12158,7 @@
         <v>33</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="P157" s="2" t="s">
         <v>33</v>
@@ -12232,10 +12223,10 @@
         <v>31</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="P158" s="2" t="s">
         <v>33</v>
@@ -12270,7 +12261,7 @@
         <v>22</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>352</v>
@@ -12303,7 +12294,7 @@
         <v>33</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="P159" s="2" t="s">
         <v>33</v>
@@ -12338,7 +12329,7 @@
         <v>22</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>352</v>
@@ -12368,10 +12359,10 @@
         <v>31</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>358</v>
+        <v>33</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P160" s="2" t="s">
         <v>33</v>
@@ -12439,7 +12430,7 @@
         <v>33</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="P161" s="2" t="s">
         <v>33</v>
@@ -12474,7 +12465,7 @@
         <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>352</v>
@@ -12504,10 +12495,10 @@
         <v>31</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P162" s="2" t="s">
         <v>33</v>
@@ -12548,16 +12539,16 @@
         <v>352</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>29</v>
@@ -12610,22 +12601,22 @@
         <v>22</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>352</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>29</v>
@@ -12640,10 +12631,10 @@
         <v>31</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="P164" s="2" t="s">
         <v>33</v>
@@ -12684,16 +12675,16 @@
         <v>352</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>330</v>
+        <v>139</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>342</v>
+        <v>140</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>343</v>
+        <v>141</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>344</v>
+        <v>141</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>29</v>
@@ -12708,10 +12699,10 @@
         <v>31</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="P165" s="2" t="s">
         <v>33</v>
@@ -12746,22 +12737,22 @@
         <v>22</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>352</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>29</v>
@@ -12776,10 +12767,10 @@
         <v>31</v>
       </c>
       <c r="N166" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O166" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="O166" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="P166" s="2" t="s">
         <v>33</v>
@@ -12814,22 +12805,22 @@
         <v>22</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>352</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>29</v>
@@ -12882,22 +12873,22 @@
         <v>22</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>352</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>29</v>
@@ -12912,10 +12903,10 @@
         <v>31</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="P168" s="2" t="s">
         <v>33</v>
@@ -12950,22 +12941,22 @@
         <v>22</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>352</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>29</v>
@@ -12980,10 +12971,10 @@
         <v>31</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>65</v>
+        <v>364</v>
       </c>
       <c r="P169" s="2" t="s">
         <v>33</v>
@@ -13000,78 +12991,10 @@
       <c r="T169" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U169" s="1" t="s">
-        <v>34</v>
+      <c r="U169" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="V169" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J170" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K170" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L170" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M170" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N170" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="O170" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="P170" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q170" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R170" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S170" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T170" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U170" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="V170" s="2" t="s">
         <v>33</v>
       </c>
     </row>
